--- a/tables/datas/guide.xlsx
+++ b/tables/datas/guide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11620"/>
+    <workbookView windowWidth="28800" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -64,121 +64,115 @@
     <t>next</t>
   </si>
   <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>guide.EOperation</t>
+  </si>
+  <si>
+    <t>string?</t>
+  </si>
+  <si>
+    <t>##group</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>中断重定向</t>
+  </si>
+  <si>
+    <t>下一步引导</t>
+  </si>
+  <si>
+    <t>引导操作</t>
+  </si>
+  <si>
+    <t>引导目标（当同时存在多个目标时必填）</t>
+  </si>
+  <si>
+    <t>引导1</t>
+  </si>
+  <si>
+    <t>CLICK</t>
+  </si>
+  <si>
+    <t>btn1</t>
+  </si>
+  <si>
+    <t>引导2</t>
+  </si>
+  <si>
+    <t>点击</t>
+  </si>
+  <si>
+    <t>引导3</t>
+  </si>
+  <si>
+    <t>SLIDE</t>
+  </si>
+  <si>
+    <t>引导4</t>
+  </si>
+  <si>
+    <t>CONTACT</t>
+  </si>
+  <si>
+    <t>btn1|btn2</t>
+  </si>
+  <si>
     <t>scene</t>
   </si>
   <si>
-    <t>operation</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>##type</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>string#ref=guide.TbGuideScene</t>
-  </si>
-  <si>
-    <t>guide.EOperation</t>
-  </si>
-  <si>
-    <t>string?</t>
-  </si>
-  <si>
-    <t>##group</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>中断重定向</t>
-  </si>
-  <si>
-    <t>下一步引导</t>
-  </si>
-  <si>
-    <t>引导场景</t>
-  </si>
-  <si>
-    <t>引导操作</t>
-  </si>
-  <si>
-    <t>引导目标（当同时存在多个目标时必填）</t>
-  </si>
-  <si>
-    <t>引导1</t>
+    <t>int#ref=guide.TbGuide</t>
+  </si>
+  <si>
+    <t>场景</t>
+  </si>
+  <si>
+    <t>guideID</t>
   </si>
   <si>
     <t>scene1</t>
   </si>
   <si>
-    <t>CLICK</t>
-  </si>
-  <si>
-    <t>btn1</t>
-  </si>
-  <si>
-    <t>引导2</t>
+    <t>场景1</t>
   </si>
   <si>
     <t>scene2</t>
   </si>
   <si>
-    <t>点击</t>
-  </si>
-  <si>
-    <t>引导3</t>
+    <t>场景2</t>
   </si>
   <si>
     <t>scene3</t>
   </si>
   <si>
-    <t>SLIDE</t>
-  </si>
-  <si>
-    <t>引导4</t>
+    <t>场景3</t>
   </si>
   <si>
     <t>scene4</t>
-  </si>
-  <si>
-    <t>CONTACT</t>
-  </si>
-  <si>
-    <t>btn1|btn2</t>
-  </si>
-  <si>
-    <t>int#ref=guide.TbGuide</t>
-  </si>
-  <si>
-    <t>场景</t>
-  </si>
-  <si>
-    <t>guideID</t>
-  </si>
-  <si>
-    <t>场景1</t>
-  </si>
-  <si>
-    <t>场景2</t>
-  </si>
-  <si>
-    <t>场景3</t>
   </si>
   <si>
     <t>场景4</t>
@@ -1136,10 +1130,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
@@ -1149,12 +1143,11 @@
     <col min="3" max="3" width="12.3839285714286" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="20.0892857142857" customWidth="1"/>
-    <col min="7" max="7" width="28.4196428571429" customWidth="1"/>
-    <col min="8" max="8" width="27.3660714285714" customWidth="1"/>
-    <col min="9" max="9" width="35.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="27.3660714285714" customWidth="1"/>
+    <col min="8" max="8" width="35.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="17" spans="1:24">
+    <row r="1" s="3" customFormat="1" ht="17" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1171,16 +1164,14 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
@@ -1194,35 +1185,32 @@
       <c r="U1"/>
       <c r="V1"/>
       <c r="W1"/>
-      <c r="X1"/>
     </row>
-    <row r="2" s="4" customFormat="1" spans="1:24">
+    <row r="2" s="4" customFormat="1" spans="1:23">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
@@ -1236,26 +1224,25 @@
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2"/>
-      <c r="X2"/>
     </row>
-    <row r="3" s="4" customFormat="1" spans="1:20">
+    <row r="3" s="4" customFormat="1" spans="1:19">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -1266,34 +1253,31 @@
       <c r="Q3"/>
       <c r="R3"/>
       <c r="S3"/>
-      <c r="T3"/>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:20">
+    <row r="4" s="3" customFormat="1" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -1304,40 +1288,36 @@
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
-      <c r="T4"/>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:8">
       <c r="B5">
         <v>10000</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <v>10001</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:7">
       <c r="B6">
         <v>10001</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>10000</v>
@@ -1346,21 +1326,18 @@
         <v>10002</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:8">
       <c r="B7">
         <v>10002</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>10000</v>
@@ -1369,36 +1346,30 @@
         <v>10003</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:8">
       <c r="B8">
         <v>10003</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>10000</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1427,11 +1398,11 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1439,101 +1410,101 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>10000</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D6">
         <v>10001</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>10002</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>10003</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/tables/datas/guide.xlsx
+++ b/tables/datas/guide.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11640"/>
+    <workbookView windowWidth="28800" windowHeight="11560"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="scene" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
@@ -58,18 +57,15 @@
     <t>desc</t>
   </si>
   <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
     <t>redirect</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>operation</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
@@ -79,12 +75,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>guide.EOperation</t>
-  </si>
-  <si>
-    <t>string?</t>
-  </si>
-  <si>
     <t>##group</t>
   </si>
   <si>
@@ -100,82 +90,28 @@
     <t>描述</t>
   </si>
   <si>
+    <t>引导触发条件</t>
+  </si>
+  <si>
+    <t>下一步引导</t>
+  </si>
+  <si>
     <t>中断重定向</t>
   </si>
   <si>
-    <t>下一步引导</t>
-  </si>
-  <si>
-    <t>引导操作</t>
-  </si>
-  <si>
-    <t>引导目标（当同时存在多个目标时必填）</t>
-  </si>
-  <si>
     <t>引导1</t>
   </si>
   <si>
-    <t>CLICK</t>
-  </si>
-  <si>
-    <t>btn1</t>
-  </si>
-  <si>
     <t>引导2</t>
   </si>
   <si>
-    <t>点击</t>
+    <t>cond_1</t>
   </si>
   <si>
     <t>引导3</t>
   </si>
   <si>
-    <t>SLIDE</t>
-  </si>
-  <si>
     <t>引导4</t>
-  </si>
-  <si>
-    <t>CONTACT</t>
-  </si>
-  <si>
-    <t>btn1|btn2</t>
-  </si>
-  <si>
-    <t>scene</t>
-  </si>
-  <si>
-    <t>int#ref=guide.TbGuide</t>
-  </si>
-  <si>
-    <t>场景</t>
-  </si>
-  <si>
-    <t>guideID</t>
-  </si>
-  <si>
-    <t>scene1</t>
-  </si>
-  <si>
-    <t>场景1</t>
-  </si>
-  <si>
-    <t>scene2</t>
-  </si>
-  <si>
-    <t>场景2</t>
-  </si>
-  <si>
-    <t>scene3</t>
-  </si>
-  <si>
-    <t>场景3</t>
-  </si>
-  <si>
-    <t>scene4</t>
-  </si>
-  <si>
-    <t>场景4</t>
   </si>
 </sst>
 </file>
@@ -804,13 +740,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1130,10 +1065,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
@@ -1141,36 +1076,34 @@
     <col min="1" max="1" width="9.22321428571429" customWidth="1"/>
     <col min="2" max="2" width="6.75" customWidth="1"/>
     <col min="3" max="3" width="12.3839285714286" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="17.0982142857143" customWidth="1"/>
     <col min="6" max="6" width="20.0892857142857" customWidth="1"/>
     <col min="7" max="7" width="27.3660714285714" customWidth="1"/>
     <col min="8" max="8" width="35.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="17" spans="1:23">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="17" spans="1:19">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="5"/>
+      <c r="H1"/>
+      <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
@@ -1181,35 +1114,29 @@
       <c r="Q1"/>
       <c r="R1"/>
       <c r="S1"/>
-      <c r="T1"/>
-      <c r="U1"/>
-      <c r="V1"/>
-      <c r="W1"/>
     </row>
-    <row r="2" s="4" customFormat="1" spans="1:23">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:19">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="5"/>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -1220,28 +1147,26 @@
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
     </row>
-    <row r="3" s="4" customFormat="1" spans="1:19">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+    <row r="3" s="2" customFormat="1" spans="1:15">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -1249,34 +1174,28 @@
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:19">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:15">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
@@ -1284,29 +1203,19 @@
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:6">
       <c r="B5">
         <v>10000</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <v>10001</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -1314,62 +1223,50 @@
         <v>10001</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>10000</v>
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
       </c>
       <c r="F6">
         <v>10002</v>
       </c>
-      <c r="G6" t="s">
-        <v>25</v>
+      <c r="G6">
+        <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:7">
       <c r="B7">
         <v>10002</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>10000</v>
+        <v>20</v>
       </c>
       <c r="F7">
         <v>10003</v>
       </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>23</v>
+      <c r="G7">
+        <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:7">
       <c r="B8">
         <v>10003</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8">
+        <v>21</v>
+      </c>
+      <c r="G8">
         <v>10000</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1377,138 +1274,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="4"/>
-  <cols>
-    <col min="4" max="4" width="19.3392857142857" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5">
-        <v>10000</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6">
-        <v>10001</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7">
-        <v>10002</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8">
-        <v>10003</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>